--- a/HelloDioDocs/Template.xlsx
+++ b/HelloDioDocs/Template.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\DioDocs-Hands-on\HelloDioDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\DioDocs-Hands-on\HelloDioDocs\HelloDioDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BF59C1-7332-488E-8BB0-B9CAC164B2FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0194F1C-1DA9-4EFA-9A92-71ED828240D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="1560" windowWidth="16425" windowHeight="17400" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
+    <workbookView xWindow="15990" yWindow="3210" windowWidth="12000" windowHeight="13665" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
   </bookViews>
   <sheets>
     <sheet name="{{Invoice.SalesOrderID}}" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'{{Invoice.SalesOrderID}}'!$A$1:$E$22</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'{{Invoice.SalesOrderID}}'!$13:$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'{{Invoice.SalesOrderID}}'!$A$1:$F$22</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'{{Invoice.SalesOrderID}}'!$12:$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>請　求　書</t>
     <rPh sb="0" eb="1">
@@ -56,13 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>請求No.</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>請求日</t>
     <rPh sb="0" eb="2">
       <t>セイキュウ</t>
@@ -122,13 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>金額</t>
-    <rPh sb="0" eb="2">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数量</t>
     <rPh sb="0" eb="2">
       <t>スウリョウ</t>
@@ -143,13 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>適用</t>
-    <rPh sb="0" eb="2">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お振込期限までに下記口座へお振込みをお願いいたします。</t>
   </si>
   <si>
@@ -215,6 +194,97 @@
   </si>
   <si>
     <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引率</t>
+    <rPh sb="0" eb="2">
+      <t>ワリビキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>税抜き価格</t>
+    <rPh sb="0" eb="1">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{Invoice.CustomerAddress}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{Invoice.StoreName}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.CustomerPerson}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.InvitationDay}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.DueDate}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.TaxAmt}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.TotalDue}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.ProductName}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.UnitPrice}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.OrderQty}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.UnitPriceDiscount}}</t>
+  </si>
+  <si>
+    <t>{{=Invoice.UnitPrice*Invoice.OrderQty*(1-E13)}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{=SUM(F13)}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{Invoice.PostalCode}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{==(ROW()-12)(C=B13)}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送料</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{Invoice.Freight}}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -226,9 +296,9 @@
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +361,38 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -309,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -341,43 +443,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -387,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,70 +477,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="5" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,7 +536,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -495,6 +548,20 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -808,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6D8516-4D0A-4E06-8C27-926F6553DAFB}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E2:E4"/>
+      <selection activeCell="F18" activeCellId="2" sqref="C13 F13:F16 F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -819,180 +886,213 @@
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="E2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="E3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="E12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="F18" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D15" s="6" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
         <v>21</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A14 C14:E14">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
+  <conditionalFormatting sqref="A13:F13">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD($A13,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{1DD8A89D-E4BA-4FC6-A2D5-62C3D77940E7}"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{1DD8A89D-E4BA-4FC6-A2D5-62C3D77940E7}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>